--- a/biology/Zoologie/Encyocrypta_oubatche/Encyocrypta_oubatche.xlsx
+++ b/biology/Zoologie/Encyocrypta_oubatche/Encyocrypta_oubatche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta oubatche est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta oubatche est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers Oubatche[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers Oubatche.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 11 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 11 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Oubatche.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
